--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>15</v>
       </c>
       <c r="K8" t="str">
         <v>15</v>
@@ -800,6 +800,9 @@
       <c r="I9" t="str">
         <v>15</v>
       </c>
+      <c r="J9" t="str">
+        <v>15</v>
+      </c>
       <c r="K9" t="str">
         <v>15</v>
       </c>
@@ -974,8 +977,53 @@
       <c r="C12" t="str">
         <v>14</v>
       </c>
+      <c r="D12" t="str">
+        <v>14</v>
+      </c>
       <c r="E12" t="str">
-        <v/>
+        <v>14</v>
+      </c>
+      <c r="F12" t="str">
+        <v>14</v>
+      </c>
+      <c r="G12" t="str">
+        <v>14</v>
+      </c>
+      <c r="H12" t="str">
+        <v>14</v>
+      </c>
+      <c r="I12" t="str">
+        <v>14</v>
+      </c>
+      <c r="J12" t="str">
+        <v>14</v>
+      </c>
+      <c r="K12" t="str">
+        <v>14</v>
+      </c>
+      <c r="L12" t="str">
+        <v>14</v>
+      </c>
+      <c r="M12" t="str">
+        <v>14</v>
+      </c>
+      <c r="N12" t="str">
+        <v>14</v>
+      </c>
+      <c r="O12" t="str">
+        <v>14</v>
+      </c>
+      <c r="P12" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>14</v>
+      </c>
+      <c r="R12" t="str">
+        <v>14</v>
+      </c>
+      <c r="S12" t="str">
+        <v>14</v>
       </c>
       <c r="T12" t="str">
         <v>14</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -539,6 +539,57 @@
       <c r="B3" t="str">
         <v>2</v>
       </c>
+      <c r="C3" t="str">
+        <v>14</v>
+      </c>
+      <c r="D3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E3" t="str">
+        <v>14</v>
+      </c>
+      <c r="F3" t="str">
+        <v>14</v>
+      </c>
+      <c r="G3" t="str">
+        <v>14</v>
+      </c>
+      <c r="H3" t="str">
+        <v>14</v>
+      </c>
+      <c r="I3" t="str">
+        <v>14</v>
+      </c>
+      <c r="J3" t="str">
+        <v>14</v>
+      </c>
+      <c r="K3" t="str">
+        <v>14</v>
+      </c>
+      <c r="L3" t="str">
+        <v>14</v>
+      </c>
+      <c r="M3" t="str">
+        <v>14</v>
+      </c>
+      <c r="N3" t="str">
+        <v>14</v>
+      </c>
+      <c r="O3" t="str">
+        <v>14</v>
+      </c>
+      <c r="P3" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>14</v>
+      </c>
+      <c r="R3" t="str">
+        <v>14</v>
+      </c>
+      <c r="S3" t="str">
+        <v>14</v>
+      </c>
       <c r="T3" t="str">
         <v>14</v>
       </c>
@@ -550,8 +601,59 @@
       <c r="A4" t="str">
         <v>NUM(3)</v>
       </c>
+      <c r="B4" t="str">
+        <v>14</v>
+      </c>
       <c r="C4" t="str">
         <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>14</v>
+      </c>
+      <c r="E4" t="str">
+        <v>14</v>
+      </c>
+      <c r="F4" t="str">
+        <v>14</v>
+      </c>
+      <c r="G4" t="str">
+        <v>14</v>
+      </c>
+      <c r="H4" t="str">
+        <v>14</v>
+      </c>
+      <c r="I4" t="str">
+        <v>14</v>
+      </c>
+      <c r="J4" t="str">
+        <v>14</v>
+      </c>
+      <c r="K4" t="str">
+        <v>14</v>
+      </c>
+      <c r="L4" t="str">
+        <v>14</v>
+      </c>
+      <c r="M4" t="str">
+        <v>14</v>
+      </c>
+      <c r="N4" t="str">
+        <v>14</v>
+      </c>
+      <c r="O4" t="str">
+        <v>14</v>
+      </c>
+      <c r="P4" t="str">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>14</v>
+      </c>
+      <c r="R4" t="str">
+        <v>14</v>
+      </c>
+      <c r="S4" t="str">
+        <v>14</v>
       </c>
       <c r="T4" t="str">
         <v>14</v>
@@ -564,11 +666,59 @@
       <c r="A5" t="str">
         <v>IDC(4)</v>
       </c>
+      <c r="B5" t="str">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <v>14</v>
+      </c>
       <c r="D5" t="str">
         <v>5</v>
       </c>
+      <c r="E5" t="str">
+        <v>15</v>
+      </c>
+      <c r="F5" t="str">
+        <v>15</v>
+      </c>
+      <c r="G5" t="str">
+        <v>15</v>
+      </c>
+      <c r="H5" t="str">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <v>15</v>
+      </c>
+      <c r="J5" t="str">
+        <v>15</v>
+      </c>
+      <c r="K5" t="str">
+        <v>15</v>
+      </c>
+      <c r="L5" t="str">
+        <v>15</v>
+      </c>
+      <c r="M5" t="str">
+        <v>15</v>
+      </c>
       <c r="N5" t="str">
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="O5" t="str">
+        <v>15</v>
+      </c>
+      <c r="P5" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>15</v>
+      </c>
+      <c r="R5" t="str">
+        <v>15</v>
+      </c>
+      <c r="S5" t="str">
+        <v>15</v>
       </c>
       <c r="T5" t="str">
         <v>14</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,9 +461,12 @@
         <v>]</v>
       </c>
       <c r="T1" t="str">
+        <v>.</v>
+      </c>
+      <c r="U1" t="str">
         <v>[outro]</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>ACEITAÇÃO</v>
       </c>
     </row>
@@ -526,9 +529,12 @@
         <v>14</v>
       </c>
       <c r="T2" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U2" t="str">
+        <v>15</v>
+      </c>
+      <c r="V2" t="str">
         <v>não</v>
       </c>
     </row>
@@ -594,6 +600,9 @@
         <v>14</v>
       </c>
       <c r="U3" t="str">
+        <v>14</v>
+      </c>
+      <c r="V3" t="str">
         <v>não</v>
       </c>
     </row>
@@ -659,6 +668,9 @@
         <v>14</v>
       </c>
       <c r="U4" t="str">
+        <v>14</v>
+      </c>
+      <c r="V4" t="str">
         <v>não</v>
       </c>
     </row>
@@ -721,9 +733,12 @@
         <v>15</v>
       </c>
       <c r="T5" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U5" t="str">
+        <v>14</v>
+      </c>
+      <c r="V5" t="str">
         <v>não</v>
       </c>
     </row>
@@ -738,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="str">
         <v>5</v>
@@ -765,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" t="str">
         <v>5</v>
@@ -789,6 +804,9 @@
         <v>5</v>
       </c>
       <c r="U6" t="str">
+        <v>5</v>
+      </c>
+      <c r="V6" t="str">
         <v>não</v>
       </c>
     </row>
@@ -854,6 +872,9 @@
         <v>5</v>
       </c>
       <c r="U7" t="str">
+        <v>5</v>
+      </c>
+      <c r="V7" t="str">
         <v>não</v>
       </c>
     </row>
@@ -916,9 +937,12 @@
         <v>15</v>
       </c>
       <c r="T8" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U8" t="str">
+        <v>14</v>
+      </c>
+      <c r="V8" t="str">
         <v>não</v>
       </c>
     </row>
@@ -981,9 +1005,12 @@
         <v>15</v>
       </c>
       <c r="T9" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U9" t="str">
+        <v>14</v>
+      </c>
+      <c r="V9" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1049,6 +1076,9 @@
         <v>15</v>
       </c>
       <c r="U10" t="str">
+        <v>15</v>
+      </c>
+      <c r="V10" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1111,9 +1141,12 @@
         <v>15</v>
       </c>
       <c r="T11" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11" t="str">
+        <v>14</v>
+      </c>
+      <c r="V11" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1179,6 +1212,9 @@
         <v>14</v>
       </c>
       <c r="U12" t="str">
+        <v>14</v>
+      </c>
+      <c r="V12" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1241,9 +1277,12 @@
         <v>15</v>
       </c>
       <c r="T13" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U13" t="str">
+        <v>14</v>
+      </c>
+      <c r="V13" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1306,9 +1345,12 @@
         <v>15</v>
       </c>
       <c r="T14" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U14" t="str">
+        <v>14</v>
+      </c>
+      <c r="V14" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1316,7 +1358,7 @@
       <c r="A15" t="str">
         <v>Fim(14)</v>
       </c>
-      <c r="U15" t="str">
+      <c r="V15" t="str">
         <v>sim</v>
       </c>
     </row>
@@ -1324,13 +1366,13 @@
       <c r="A16" t="str">
         <v>Erro(15)</v>
       </c>
-      <c r="U16" t="str">
+      <c r="V16" t="str">
         <v>não</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -744,7 +744,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Coment(5)</v>
+        <v>coment(5)</v>
       </c>
       <c r="B6" t="str">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="str">
         <v>5</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,9 +464,12 @@
         <v>.</v>
       </c>
       <c r="U1" t="str">
+        <v>espaco|tab</v>
+      </c>
+      <c r="V1" t="str">
         <v>[outro]</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>ACEITAÇÃO</v>
       </c>
     </row>
@@ -532,9 +535,12 @@
         <v>14</v>
       </c>
       <c r="U2" t="str">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V2" t="str">
+        <v>15</v>
+      </c>
+      <c r="W2" t="str">
         <v>não</v>
       </c>
     </row>
@@ -600,9 +606,12 @@
         <v>14</v>
       </c>
       <c r="U3" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" t="str">
+        <v>14</v>
+      </c>
+      <c r="W3" t="str">
         <v>não</v>
       </c>
     </row>
@@ -668,9 +677,12 @@
         <v>14</v>
       </c>
       <c r="U4" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V4" t="str">
+        <v>14</v>
+      </c>
+      <c r="W4" t="str">
         <v>não</v>
       </c>
     </row>
@@ -736,9 +748,12 @@
         <v>15</v>
       </c>
       <c r="U5" t="str">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="V5" t="str">
+        <v>14</v>
+      </c>
+      <c r="W5" t="str">
         <v>não</v>
       </c>
     </row>
@@ -807,6 +822,9 @@
         <v>5</v>
       </c>
       <c r="V6" t="str">
+        <v>5</v>
+      </c>
+      <c r="W6" t="str">
         <v>não</v>
       </c>
     </row>
@@ -875,6 +893,9 @@
         <v>5</v>
       </c>
       <c r="V7" t="str">
+        <v>5</v>
+      </c>
+      <c r="W7" t="str">
         <v>não</v>
       </c>
     </row>
@@ -940,9 +961,12 @@
         <v>15</v>
       </c>
       <c r="U8" t="str">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="V8" t="str">
+        <v>14</v>
+      </c>
+      <c r="W8" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1008,9 +1032,12 @@
         <v>15</v>
       </c>
       <c r="U9" t="str">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V9" t="str">
+        <v>14</v>
+      </c>
+      <c r="W9" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1076,9 +1103,12 @@
         <v>15</v>
       </c>
       <c r="U10" t="str">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V10" t="str">
+        <v>15</v>
+      </c>
+      <c r="W10" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1144,9 +1174,12 @@
         <v>15</v>
       </c>
       <c r="U11" t="str">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V11" t="str">
+        <v>14</v>
+      </c>
+      <c r="W11" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1212,9 +1245,12 @@
         <v>14</v>
       </c>
       <c r="U12" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V12" t="str">
+        <v>14</v>
+      </c>
+      <c r="W12" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1280,9 +1316,12 @@
         <v>15</v>
       </c>
       <c r="U13" t="str">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V13" t="str">
+        <v>14</v>
+      </c>
+      <c r="W13" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1348,9 +1387,12 @@
         <v>15</v>
       </c>
       <c r="U14" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V14" t="str">
+        <v>14</v>
+      </c>
+      <c r="W14" t="str">
         <v>não</v>
       </c>
     </row>
@@ -1358,7 +1400,7 @@
       <c r="A15" t="str">
         <v>Fim(14)</v>
       </c>
-      <c r="V15" t="str">
+      <c r="W15" t="str">
         <v>sim</v>
       </c>
     </row>
@@ -1366,13 +1408,13 @@
       <c r="A16" t="str">
         <v>Erro(15)</v>
       </c>
-      <c r="V16" t="str">
+      <c r="W16" t="str">
         <v>não</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -464,7 +464,7 @@
         <v>.</v>
       </c>
       <c r="U1" t="str">
-        <v>espaco|tab</v>
+        <v>espaco|tab|\n</v>
       </c>
       <c r="V1" t="str">
         <v>[outro]</v>
@@ -606,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="U3" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V3" t="str">
         <v>14</v>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N7" t="str">
         <v>5</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" t="str">
         <v>5</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="U11" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V11" t="str">
         <v>14</v>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="U12" t="str">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V12" t="str">
         <v>14</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="str">
         <v>5</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>Menor(7)</v>
       </c>
       <c r="B8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="str">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>Maior(8)</v>
       </c>
       <c r="B9" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="str">
         <v>14</v>
@@ -1398,23 +1398,91 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Fim(14)</v>
-      </c>
-      <c r="W15" t="str">
-        <v>sim</v>
+        <v>+-*/ (13.5)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <v>14</v>
+      </c>
+      <c r="D15" t="str">
+        <v>15</v>
+      </c>
+      <c r="E15" t="str">
+        <v>15</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+      <c r="G15" t="str">
+        <v>15</v>
+      </c>
+      <c r="H15" t="str">
+        <v>15</v>
+      </c>
+      <c r="I15" t="str">
+        <v>15</v>
+      </c>
+      <c r="J15" t="str">
+        <v>15</v>
+      </c>
+      <c r="K15" t="str">
+        <v>15</v>
+      </c>
+      <c r="L15" t="str">
+        <v>15</v>
+      </c>
+      <c r="M15" t="str">
+        <v>15</v>
+      </c>
+      <c r="N15" t="str">
+        <v>15</v>
+      </c>
+      <c r="O15" t="str">
+        <v>15</v>
+      </c>
+      <c r="P15" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>15</v>
+      </c>
+      <c r="R15" t="str">
+        <v>15</v>
+      </c>
+      <c r="S15" t="str">
+        <v>15</v>
+      </c>
+      <c r="T15" t="str">
+        <v>15</v>
+      </c>
+      <c r="U15" t="str">
+        <v>14</v>
+      </c>
+      <c r="V15" t="str">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>Fim(14)</v>
+      </c>
+      <c r="W16" t="str">
+        <v>sim</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>Erro(15)</v>
       </c>
-      <c r="W16" t="str">
+      <c r="W17" t="str">
         <v>não</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -484,31 +484,31 @@
         <v>3</v>
       </c>
       <c r="D2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="E2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="K2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="L2" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="M2" t="str">
         <v>4</v>
@@ -691,10 +691,10 @@
         <v>IDC(4)</v>
       </c>
       <c r="B5" t="str">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="C5" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D5" t="str">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="L15" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" t="str">
         <v>15</v>
@@ -1458,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="U15" t="str">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V15" t="str">
         <v>15</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -1458,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="U15" t="str">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V15" t="str">
         <v>15</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="str">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="N7" t="str">
         <v>5</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Menor(7)</v>
+        <v>/(6.5)</v>
       </c>
       <c r="B8" t="str">
         <v>14</v>
@@ -910,58 +910,58 @@
         <v>14</v>
       </c>
       <c r="D8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U8" t="str">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V8" t="str">
         <v>14</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Maior(8)</v>
+        <v>Menor(7)</v>
       </c>
       <c r="B9" t="str">
         <v>14</v>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="N9" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="str">
         <v>15</v>
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="U9" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="str">
         <v>14</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Diferente(9)</v>
+        <v>Maior(8)</v>
       </c>
       <c r="B10" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="str">
         <v>15</v>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="N10" t="str">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O10" t="str">
         <v>15</v>
@@ -1103,10 +1103,10 @@
         <v>15</v>
       </c>
       <c r="U10" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V10" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W10" t="str">
         <v>não</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Atribuicao(10)</v>
+        <v>Diferente(9)</v>
       </c>
       <c r="B11" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="str">
         <v>15</v>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="N11" t="str">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O11" t="str">
         <v>15</v>
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="U11" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V11" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" t="str">
         <v>não</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Comparacao(11)</v>
+        <v>Atribuicao(10)</v>
       </c>
       <c r="B12" t="str">
         <v>14</v>
@@ -1194,55 +1194,55 @@
         <v>14</v>
       </c>
       <c r="D12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T12" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U12" t="str">
         <v>14</v>
@@ -1256,67 +1256,67 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MaiorIgual(12)</v>
+        <v>Comparacao(11)</v>
       </c>
       <c r="B13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="str">
         <v>14</v>
       </c>
       <c r="D13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T13" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U13" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V13" t="str">
         <v>14</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>MenorIgual(13)</v>
+        <v>MaiorIgual(12)</v>
       </c>
       <c r="B14" t="str">
         <v>15</v>
@@ -1387,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="U14" t="str">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V14" t="str">
         <v>14</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>+-*/ (13.5)</v>
+        <v>MenorIgual(13)</v>
       </c>
       <c r="B15" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="str">
         <v>14</v>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="L15" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" t="str">
         <v>15</v>
@@ -1458,31 +1458,102 @@
         <v>15</v>
       </c>
       <c r="U15" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V15" t="str">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="W15" t="str">
+        <v>não</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Fim(14)</v>
-      </c>
-      <c r="W16" t="str">
-        <v>sim</v>
+        <v>+-*/ (13.5)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <v>15</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+      <c r="G16" t="str">
+        <v>15</v>
+      </c>
+      <c r="H16" t="str">
+        <v>15</v>
+      </c>
+      <c r="I16" t="str">
+        <v>15</v>
+      </c>
+      <c r="J16" t="str">
+        <v>15</v>
+      </c>
+      <c r="K16" t="str">
+        <v>15</v>
+      </c>
+      <c r="L16" t="str">
+        <v>14</v>
+      </c>
+      <c r="M16" t="str">
+        <v>15</v>
+      </c>
+      <c r="N16" t="str">
+        <v>15</v>
+      </c>
+      <c r="O16" t="str">
+        <v>15</v>
+      </c>
+      <c r="P16" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>15</v>
+      </c>
+      <c r="R16" t="str">
+        <v>15</v>
+      </c>
+      <c r="S16" t="str">
+        <v>15</v>
+      </c>
+      <c r="T16" t="str">
+        <v>15</v>
+      </c>
+      <c r="U16" t="str">
+        <v>14</v>
+      </c>
+      <c r="V16" t="str">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>Fim(14)</v>
+      </c>
+      <c r="W17" t="str">
+        <v>sim</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>Erro(15)</v>
       </c>
-      <c r="W17" t="str">
+      <c r="W18" t="str">
         <v>não</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="W2" t="str">
         <v>não</v>

--- a/Projeto/Tabela_DFA.xlsx
+++ b/Projeto/Tabela_DFA.xlsx
@@ -1508,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="N16" t="str">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O16" t="str">
         <v>15</v>
